--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1652,28 +1652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.09242530768117</v>
+        <v>99.83605286227093</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.2177456174676</v>
+        <v>136.6000919819032</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.88959586032399</v>
+        <v>123.5631709226202</v>
       </c>
       <c r="AD2" t="n">
-        <v>79092.42530768117</v>
+        <v>99836.05286227094</v>
       </c>
       <c r="AE2" t="n">
-        <v>108217.7456174676</v>
+        <v>136600.0919819032</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.778811692893131e-06</v>
+        <v>1.14599175057199e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.988888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>97889.595860324</v>
+        <v>123563.1709226202</v>
       </c>
     </row>
     <row r="3">
@@ -1758,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.62470918471865</v>
+        <v>49.03919338930226</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.84803110827996</v>
+        <v>67.09758785174417</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.80428919208344</v>
+        <v>60.69388823924417</v>
       </c>
       <c r="AD3" t="n">
-        <v>38624.70918471865</v>
+        <v>49039.19338930227</v>
       </c>
       <c r="AE3" t="n">
-        <v>52848.03110827996</v>
+        <v>67097.58785174416</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093491314809429e-05</v>
+        <v>1.848601322570298e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.852777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>47804.28919208344</v>
+        <v>60693.88823924417</v>
       </c>
     </row>
   </sheetData>
@@ -2055,28 +2055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.10423720832384</v>
+        <v>66.10955370616327</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.76429249266012</v>
+        <v>90.45400792840833</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.43801615653936</v>
+        <v>81.82120436474041</v>
       </c>
       <c r="AD2" t="n">
-        <v>56104.23720832384</v>
+        <v>66109.55370616326</v>
       </c>
       <c r="AE2" t="n">
-        <v>76764.29249266011</v>
+        <v>90454.00792840833</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.15060431574686e-06</v>
+        <v>1.584693426704641e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.290277777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>69438.01615653936</v>
+        <v>81821.20436474041</v>
       </c>
     </row>
     <row r="3">
@@ -2161,28 +2161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.21675374495295</v>
+        <v>48.3073215888158</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.28984847787143</v>
+        <v>66.09620856641402</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.29937872850521</v>
+        <v>59.78807918746097</v>
       </c>
       <c r="AD3" t="n">
-        <v>38216.75374495296</v>
+        <v>48307.3215888158</v>
       </c>
       <c r="AE3" t="n">
-        <v>52289.84847787143</v>
+        <v>66096.20856641402</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.08230487698008e-05</v>
+        <v>1.8743258533092e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.936111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>47299.37872850521</v>
+        <v>59788.07918746096</v>
       </c>
     </row>
   </sheetData>
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.23705293043535</v>
+        <v>56.26716719713002</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.6318197710978</v>
+        <v>76.98722049130842</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.4634496034867</v>
+        <v>69.63966821987816</v>
       </c>
       <c r="AD2" t="n">
-        <v>47237.05293043535</v>
+        <v>56267.16719713002</v>
       </c>
       <c r="AE2" t="n">
-        <v>64631.8197710978</v>
+        <v>76987.22049130841</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.895665725234011e-06</v>
+        <v>1.872472899767488e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.363888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>58463.4496034867</v>
+        <v>69639.66821987816</v>
       </c>
     </row>
   </sheetData>
@@ -2755,28 +2755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.85546838075064</v>
+        <v>56.2668478137024</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.10971895589722</v>
+        <v>76.98678349681254</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.99117735731559</v>
+        <v>69.63927293152365</v>
       </c>
       <c r="AD2" t="n">
-        <v>46855.46838075064</v>
+        <v>56266.8478137024</v>
       </c>
       <c r="AE2" t="n">
-        <v>64109.71895589722</v>
+        <v>76986.78349681254</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052885742290163e-05</v>
+        <v>1.918129162223153e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>57991.1773573156</v>
+        <v>69639.27293152365</v>
       </c>
     </row>
   </sheetData>
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.14687517523547</v>
+        <v>66.66683425479825</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.24492282184301</v>
+        <v>91.21650376053297</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.82716176658276</v>
+        <v>82.51092866481694</v>
       </c>
       <c r="AD2" t="n">
-        <v>49146.87517523547</v>
+        <v>66666.83425479825</v>
       </c>
       <c r="AE2" t="n">
-        <v>67244.92282184301</v>
+        <v>91216.50376053297</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.975547081907497e-06</v>
+        <v>1.758918035507132e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.706944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>60827.16176658277</v>
+        <v>82510.92866481695</v>
       </c>
     </row>
   </sheetData>
@@ -3349,28 +3349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.62326113464312</v>
+        <v>70.71371627863849</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.94742039391218</v>
+        <v>96.75362628138289</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.03103500897242</v>
+        <v>87.51959598367898</v>
       </c>
       <c r="AD2" t="n">
-        <v>60623.26113464312</v>
+        <v>70713.71627863849</v>
       </c>
       <c r="AE2" t="n">
-        <v>82947.42039391218</v>
+        <v>96753.62628138289</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.516080984960741e-06</v>
+        <v>1.46517572943788e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.438888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>75031.03500897242</v>
+        <v>87519.59598367898</v>
       </c>
     </row>
     <row r="3">
@@ -3455,28 +3455,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.4779596014173</v>
+        <v>48.65366609143615</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.64724185427332</v>
+        <v>66.57009239454</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.62266298266912</v>
+        <v>60.2167362081309</v>
       </c>
       <c r="AD3" t="n">
-        <v>38477.9596014173</v>
+        <v>48653.66609143615</v>
       </c>
       <c r="AE3" t="n">
-        <v>52647.24185427332</v>
+        <v>66570.09239454</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.081286986618942e-05</v>
+        <v>1.860333940164378e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.920833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>47622.66298266912</v>
+        <v>60216.7362081309</v>
       </c>
     </row>
   </sheetData>
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.91252936188512</v>
+        <v>68.53009435335733</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.97496582715229</v>
+        <v>93.76589842861431</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.15139014121523</v>
+        <v>84.8170126838753</v>
       </c>
       <c r="AD2" t="n">
-        <v>59912.52936188512</v>
+        <v>68530.09435335733</v>
       </c>
       <c r="AE2" t="n">
-        <v>81974.96582715229</v>
+        <v>93765.89842861431</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.275443891795033e-06</v>
+        <v>1.658945446870874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.004166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>74151.39014121523</v>
+        <v>84817.01268387531</v>
       </c>
     </row>
   </sheetData>
@@ -4049,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.23158640318115</v>
+        <v>57.96058680147539</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.99258434422815</v>
+        <v>79.30423190237288</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.69434471560299</v>
+        <v>71.73554731381731</v>
       </c>
       <c r="AD2" t="n">
-        <v>48231.58640318115</v>
+        <v>57960.58680147539</v>
       </c>
       <c r="AE2" t="n">
-        <v>65992.58434422815</v>
+        <v>79304.23190237288</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055292540544231e-05</v>
+        <v>1.869001504820978e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.045833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>59694.34471560299</v>
+        <v>71735.54731381731</v>
       </c>
     </row>
     <row r="3">
@@ -4155,28 +4155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.47176103236913</v>
+        <v>56.92958281185827</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.27051658176033</v>
+        <v>77.89356675909356</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.37733043791462</v>
+        <v>70.45951407193114</v>
       </c>
       <c r="AD3" t="n">
-        <v>37471.76103236913</v>
+        <v>56929.58281185827</v>
       </c>
       <c r="AE3" t="n">
-        <v>51270.51658176033</v>
+        <v>77893.56675909356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.081492542471724e-05</v>
+        <v>1.915403655075488e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.997222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>46377.33043791461</v>
+        <v>70459.51407193115</v>
       </c>
     </row>
   </sheetData>
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.59878845655634</v>
+        <v>62.51572880436127</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.96798286100989</v>
+        <v>85.53677814940043</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.09945958446947</v>
+        <v>77.37326809446411</v>
       </c>
       <c r="AD2" t="n">
-        <v>52598.78845655634</v>
+        <v>62515.72880436126</v>
       </c>
       <c r="AE2" t="n">
-        <v>71967.98286100989</v>
+        <v>85536.77814940043</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.73280660698539e-06</v>
+        <v>1.697316486165343e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.173611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>65099.45958446947</v>
+        <v>77373.2680944641</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.79121737172379</v>
+        <v>47.79340906555208</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.70761083868227</v>
+        <v>65.39305077986454</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.77270903242287</v>
+        <v>59.1520297931714</v>
       </c>
       <c r="AD3" t="n">
-        <v>37791.21737172379</v>
+        <v>47793.40906555208</v>
       </c>
       <c r="AE3" t="n">
-        <v>51707.61083868227</v>
+        <v>65393.05077986453</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.087435657812324e-05</v>
+        <v>1.896392833208262e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.945833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>46772.70903242287</v>
+        <v>59152.0297931714</v>
       </c>
     </row>
   </sheetData>
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.68758747633913</v>
+        <v>92.27709726946595</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.08611981824123</v>
+        <v>126.2575954622475</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.72491820754642</v>
+        <v>114.2077477550121</v>
       </c>
       <c r="AD2" t="n">
-        <v>71687.58747633913</v>
+        <v>92277.09726946596</v>
       </c>
       <c r="AE2" t="n">
-        <v>98086.11981824123</v>
+        <v>126257.5954622475</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.349737680568977e-06</v>
+        <v>1.249406694296893e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.779166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88724.91820754642</v>
+        <v>114207.7477550121</v>
       </c>
     </row>
     <row r="3">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.62486253282854</v>
+        <v>48.96228785668067</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.84824092592913</v>
+        <v>66.9923623091787</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.80447898503067</v>
+        <v>60.59870527477616</v>
       </c>
       <c r="AD3" t="n">
-        <v>38624.86253282853</v>
+        <v>48962.28785668068</v>
       </c>
       <c r="AE3" t="n">
-        <v>52848.24092592913</v>
+        <v>66992.3623091787</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.088630540065629e-05</v>
+        <v>1.850599767621561e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.876388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>47804.47898503067</v>
+        <v>60598.70527477616</v>
       </c>
     </row>
   </sheetData>
@@ -5258,28 +5258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.0782186408936</v>
+        <v>56.60111365602688</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.41449568887258</v>
+        <v>77.44414076904886</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.2668666266527</v>
+        <v>70.05298066760282</v>
       </c>
       <c r="AD2" t="n">
-        <v>47078.2186408936</v>
+        <v>56601.11365602688</v>
       </c>
       <c r="AE2" t="n">
-        <v>64414.49568887257</v>
+        <v>77444.14076904886</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060994199483122e-05</v>
+        <v>1.913223615274392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.081944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>58266.8666266527</v>
+        <v>70052.98066760282</v>
       </c>
     </row>
     <row r="3">
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.98536729988181</v>
+        <v>56.50826231501509</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.28745238778825</v>
+        <v>77.31709746796452</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.15194815991743</v>
+        <v>69.93806220086756</v>
       </c>
       <c r="AD3" t="n">
-        <v>46985.36729988181</v>
+        <v>56508.26231501509</v>
       </c>
       <c r="AE3" t="n">
-        <v>64287.45238778825</v>
+        <v>77317.09746796452</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.067023569905866e-05</v>
+        <v>1.924095996936471e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.070833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>58151.94815991743</v>
+        <v>69938.06220086756</v>
       </c>
     </row>
   </sheetData>
@@ -5661,28 +5661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.95079250823851</v>
+        <v>56.11726166169405</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.24014563252976</v>
+        <v>76.78211312435954</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.10915629498535</v>
+        <v>69.45413601216083</v>
       </c>
       <c r="AD2" t="n">
-        <v>46950.7925082385</v>
+        <v>56117.26166169405</v>
       </c>
       <c r="AE2" t="n">
-        <v>64240.14563252976</v>
+        <v>76782.11312435954</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.017391775890887e-05</v>
+        <v>1.898127851919642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.2625</v>
       </c>
       <c r="AH2" t="n">
-        <v>58109.15629498535</v>
+        <v>69454.13601216083</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.8659787863323</v>
+        <v>56.91814228739649</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.4923438733861</v>
+        <v>77.87791332880464</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.24184649320603</v>
+        <v>70.4453545830593</v>
       </c>
       <c r="AD2" t="n">
-        <v>47865.9787863323</v>
+        <v>56918.14228739649</v>
       </c>
       <c r="AE2" t="n">
-        <v>65492.3438733861</v>
+        <v>77877.91332880464</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.517500676169922e-06</v>
+        <v>1.830250674353665e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.501388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>59241.84649320603</v>
+        <v>70445.35458305929</v>
       </c>
     </row>
   </sheetData>
@@ -9460,28 +9460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.88429709755109</v>
+        <v>80.68843059775612</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.4093136651137</v>
+        <v>110.4014704661312</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.06709144867841</v>
+        <v>99.86490907430884</v>
       </c>
       <c r="AD2" t="n">
-        <v>63884.29709755109</v>
+        <v>80688.43059775613</v>
       </c>
       <c r="AE2" t="n">
-        <v>87409.3136651137</v>
+        <v>110401.4704661312</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.231767129533652e-06</v>
+        <v>1.49162379736295e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79067.09144867842</v>
+        <v>99864.90907430885</v>
       </c>
     </row>
   </sheetData>
@@ -9757,28 +9757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.98935636678396</v>
+        <v>59.81433099095064</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.39764275576609</v>
+        <v>81.84060648383343</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.86986772786519</v>
+        <v>74.02985386504815</v>
       </c>
       <c r="AD2" t="n">
-        <v>49989.35636678396</v>
+        <v>59814.33099095064</v>
       </c>
       <c r="AE2" t="n">
-        <v>68397.64275576608</v>
+        <v>81840.60648383343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.022295131570912e-05</v>
+        <v>1.796132218901015e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.090277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>61869.86772786519</v>
+        <v>74029.85386504815</v>
       </c>
     </row>
     <row r="3">
@@ -9863,28 +9863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.54074556499864</v>
+        <v>47.45097153518864</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.36490426268634</v>
+        <v>64.92451264354389</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.46270989104728</v>
+        <v>58.72820827898364</v>
       </c>
       <c r="AD3" t="n">
-        <v>37540.74556499864</v>
+        <v>47450.97153518864</v>
       </c>
       <c r="AE3" t="n">
-        <v>51364.90426268634</v>
+        <v>64924.51264354389</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086951194167594e-05</v>
+        <v>1.909730370345529e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.966666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>46462.70989104728</v>
+        <v>58728.20827898364</v>
       </c>
     </row>
   </sheetData>
@@ -10160,28 +10160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.94110476527162</v>
+        <v>76.28435239225868</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.22352865603771</v>
+        <v>104.3756163711547</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.6127217106451</v>
+        <v>94.41415403681569</v>
       </c>
       <c r="AD2" t="n">
-        <v>65941.10476527162</v>
+        <v>76284.35239225868</v>
       </c>
       <c r="AE2" t="n">
-        <v>90223.52865603771</v>
+        <v>104375.6163711547</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.897061145941359e-06</v>
+        <v>1.350309449214804e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.608333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81612.7217106451</v>
+        <v>94414.15403681569</v>
       </c>
     </row>
     <row r="3">
@@ -10266,28 +10266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.7943614209084</v>
+        <v>49.05226819332676</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.08015678236207</v>
+        <v>67.11547737543012</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.01426111762228</v>
+        <v>60.71007041189766</v>
       </c>
       <c r="AD3" t="n">
-        <v>38794.3614209084</v>
+        <v>49052.26819332676</v>
       </c>
       <c r="AE3" t="n">
-        <v>53080.15678236207</v>
+        <v>67115.47737543011</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078751007532515e-05</v>
+        <v>1.84454400428415e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.908333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>48014.26111762229</v>
+        <v>60710.07041189766</v>
       </c>
     </row>
   </sheetData>
@@ -10563,28 +10563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.04596830692263</v>
+        <v>105.3744128525924</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.890669333263</v>
+        <v>144.1779204558557</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.3074194881567</v>
+        <v>130.4177820825701</v>
       </c>
       <c r="AD2" t="n">
-        <v>81045.96830692263</v>
+        <v>105374.4128525924</v>
       </c>
       <c r="AE2" t="n">
-        <v>110890.669333263</v>
+        <v>144177.9204558557</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.680256063443317e-06</v>
+        <v>1.217540501572027e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.658333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100307.4194881567</v>
+        <v>130417.7820825701</v>
       </c>
     </row>
   </sheetData>
@@ -10860,28 +10860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.79911444728171</v>
+        <v>56.0921070763404</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.03261301796498</v>
+        <v>76.74769551093671</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.92143030188071</v>
+        <v>69.42300316745764</v>
       </c>
       <c r="AD2" t="n">
-        <v>46799.11444728171</v>
+        <v>56092.1070763404</v>
       </c>
       <c r="AE2" t="n">
-        <v>64032.61301796498</v>
+        <v>76747.69551093671</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.038912975531714e-05</v>
+        <v>1.914127067261363e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.183333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>57921.43030188071</v>
+        <v>69423.00316745763</v>
       </c>
     </row>
   </sheetData>
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.48784609593215</v>
+        <v>57.11635899081382</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.97496604434393</v>
+        <v>78.14912216712389</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.77384647802315</v>
+        <v>70.69067963049339</v>
       </c>
       <c r="AD2" t="n">
-        <v>47487.84609593215</v>
+        <v>57116.35899081382</v>
       </c>
       <c r="AE2" t="n">
-        <v>64974.96604434394</v>
+        <v>78149.12216712389</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.0631081264466e-05</v>
+        <v>1.899165084093718e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.054166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>58773.84647802314</v>
+        <v>70690.6796304934</v>
       </c>
     </row>
     <row r="3">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.10260455756123</v>
+        <v>56.73111745244291</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.44786157588794</v>
+        <v>77.62201769866789</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.29704812024065</v>
+        <v>70.21388127271091</v>
       </c>
       <c r="AD3" t="n">
-        <v>47102.60455756123</v>
+        <v>56731.11745244291</v>
       </c>
       <c r="AE3" t="n">
-        <v>64447.86157588795</v>
+        <v>77622.01769866789</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.076361995987173e-05</v>
+        <v>1.922842154783342e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.029166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>58297.04812024065</v>
+        <v>70213.8812727109</v>
       </c>
     </row>
   </sheetData>
